--- a/ProductShippingInfoExample.xlsx
+++ b/ProductShippingInfoExample.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alpenglow\Documents\Python\OrderConverter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F455C1F9-839B-4078-A487-0FC9A171B18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="30" windowWidth="24900" windowHeight="12590"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductShippingInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Item</t>
   </si>
@@ -34,12 +40,6 @@
     <t>Origin Country</t>
   </si>
   <si>
-    <t>SWT-0001</t>
-  </si>
-  <si>
-    <t>SwitchTrick power supply</t>
-  </si>
-  <si>
     <t>lb</t>
   </si>
   <si>
@@ -49,118 +49,25 @@
     <t>United States</t>
   </si>
   <si>
-    <t>RUL-0001</t>
-  </si>
-  <si>
-    <t>What the SOT?! PCB ruler</t>
-  </si>
-  <si>
     <t>9017.30.8000</t>
   </si>
   <si>
-    <t>RUL-0002</t>
-  </si>
-  <si>
-    <t>For the Love of SOD PCB ruler</t>
-  </si>
-  <si>
-    <t>BRB-0001</t>
-  </si>
-  <si>
-    <t>Big Red Button kit</t>
-  </si>
-  <si>
-    <t>8536.50.9031</t>
-  </si>
-  <si>
-    <t>BRB-0002</t>
-  </si>
-  <si>
-    <t>Arcade button QC cable</t>
-  </si>
-  <si>
     <t>8544.42.9090</t>
   </si>
   <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>IVT-0001</t>
-  </si>
-  <si>
-    <t>I Voted blinky badge kit</t>
-  </si>
-  <si>
-    <t>8534.00.0040</t>
-  </si>
-  <si>
-    <t>IVT-0002</t>
-  </si>
-  <si>
-    <t>I Voted blinky badge assembled</t>
-  </si>
-  <si>
-    <t>IVT-0003</t>
-  </si>
-  <si>
-    <t>Yo Vote blinky badge kit</t>
-  </si>
-  <si>
-    <t>FUN-0001</t>
-  </si>
-  <si>
-    <t>Funicorn Base Kit</t>
-  </si>
-  <si>
-    <t>8473.30.1180</t>
-  </si>
-  <si>
-    <t>FUN-0002</t>
-  </si>
-  <si>
-    <t>Funicorn Full Kit</t>
-  </si>
-  <si>
-    <t>HRC-0001</t>
-  </si>
-  <si>
-    <t>Happy Rain Cloud Kit</t>
-  </si>
-  <si>
-    <t>PSH-0001</t>
-  </si>
-  <si>
-    <t>PS I Hate You Kit</t>
-  </si>
-  <si>
-    <t>SKT-0001</t>
-  </si>
-  <si>
-    <t>SkeinTwister</t>
-  </si>
-  <si>
-    <t>8445.30.0000</t>
-  </si>
-  <si>
-    <t>SKT-0002</t>
-  </si>
-  <si>
-    <t>Clamps</t>
-  </si>
-  <si>
-    <t>SKM-0001</t>
-  </si>
-  <si>
-    <t>SkeinMinder</t>
-  </si>
-  <si>
-    <t>8445.40.0000</t>
+    <t>Cool Circuit Board</t>
+  </si>
+  <si>
+    <t>PCB Ruler</t>
+  </si>
+  <si>
+    <t>Arcade Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -692,6 +599,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -739,7 +649,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -772,9 +682,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,6 +734,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -982,16 +926,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1011,29 +958,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>6.3E-2</v>
       </c>
       <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1002</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -1042,273 +989,33 @@
         <v>6.3E-2</v>
       </c>
       <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C4">
+        <v>0.125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>6.3E-2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>6.3E-2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>6.3E-2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>6.3E-2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>6.3E-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10">
-        <v>0.875</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11">
-        <v>1.25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>6.3E-2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13">
-        <v>6.3E-2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>4.8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15">
-        <v>1.8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16">
-        <v>2.8</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
